--- a/Non Plants/NCBI.xlsx
+++ b/Non Plants/NCBI.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sol/Desktop/Non Plants/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sol/Documents/GitHub/Direct-shotgun-metagenomics-pub/Non Plants/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C15CA28-8258-604C-8AB1-0942B834134F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C578AB9-CF5A-1349-9465-A9C8A4FD4755}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="400" yWindow="520" windowWidth="27640" windowHeight="15740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="235">
   <si>
     <t>X</t>
   </si>
@@ -607,9 +607,6 @@
     <t>https://pubmed.ncbi.nlm.nih.gov/?term=24358254+24740297+25991680+25768309+25874551+25210772+25852743+26140264+26330094+27118586+27803186+28291793+28386455+27720045+29164717+29232373+29386588+29321884+29876054+28698604+28715431+27140688+29125851+30846803+30353179+29764668+29914555+30100619+30249635+30379893+30683856+31271530+31624548+31703071+23606484+31800608+28207182+27717118+25239900</t>
   </si>
   <si>
-    <t>Gut microbiota - seasonal,caste variability</t>
-  </si>
-  <si>
     <t>https://pubmed.ncbi.nlm.nih.gov/?term=22558460+22829932+23111871+24740297+25991680+25768309+25768110+25148082+25874551+25880915+25319366+25395644+25210772+25852743+26140264+26330094+26011669+26623177+26437644+27803186+28346815+28291793+28386455+28435856+29164717+29232373+29386588+29321884+28966892+29876054+28698604+27140688+29125851+29608282+29635372+30353179+30990837+29764668+30575755+29914555+30100619+30249635+30379893+31271530+31243442+31540209+31378758+32005933+32275718+23041637+23606484+30467713+29624166+29397399+25805518+25239900+25211052+25053814+23347062+23060052+22307297</t>
   </si>
   <si>
@@ -652,9 +649,6 @@
     <t>CORE - Firm4</t>
   </si>
   <si>
-    <t>CORE- Gut microbiota - seasonal,caste variability</t>
-  </si>
-  <si>
     <t>https://pubmed.ncbi.nlm.nih.gov/26008705/</t>
   </si>
   <si>
@@ -719,6 +713,18 @@
   </si>
   <si>
     <t>Relation category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORE - Microbiota </t>
+  </si>
+  <si>
+    <t>CORE - Gut microbiota - seasonal,caste variability</t>
+  </si>
+  <si>
+    <t>CORE -  Gut microbiota - seasonal,caste variability</t>
+  </si>
+  <si>
+    <t>CORE - Firm5</t>
   </si>
 </sst>
 </file>
@@ -1572,8 +1578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P6" workbookViewId="0">
-      <selection activeCell="S35" sqref="S35"/>
+    <sheetView tabSelected="1" topLeftCell="P14" workbookViewId="0">
+      <selection activeCell="V31" sqref="V31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1641,16 +1647,16 @@
         <v>17</v>
       </c>
       <c r="T1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="U1" t="s">
         <v>187</v>
       </c>
       <c r="V1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="W1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
@@ -1721,7 +1727,7 @@
         <v>184</v>
       </c>
       <c r="W2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
@@ -1792,7 +1798,7 @@
         <v>184</v>
       </c>
       <c r="W3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
@@ -1863,356 +1869,353 @@
         <v>189</v>
       </c>
       <c r="W4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>142</v>
+        <v>426</v>
       </c>
       <c r="B5">
-        <v>142</v>
+        <v>426</v>
       </c>
       <c r="C5">
-        <v>7461</v>
+        <v>1218495</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="E5">
+        <v>22</v>
+      </c>
+      <c r="F5">
+        <v>41</v>
+      </c>
+      <c r="G5">
         <v>24</v>
       </c>
-      <c r="F5">
-        <v>10</v>
-      </c>
-      <c r="G5">
-        <v>22</v>
-      </c>
       <c r="H5">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I5">
         <v>28</v>
       </c>
       <c r="J5">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="K5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="M5" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="N5" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="O5" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="P5" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="Q5" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="R5" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="S5" t="s">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="T5">
-        <v>142</v>
+        <v>222</v>
       </c>
       <c r="V5" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="W5" t="s">
-        <v>185</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>141</v>
+        <v>315</v>
       </c>
       <c r="B6">
-        <v>141</v>
+        <v>315</v>
       </c>
       <c r="C6">
-        <v>7460</v>
+        <v>148814</v>
       </c>
       <c r="D6">
-        <v>358</v>
+        <v>29903</v>
       </c>
       <c r="E6">
-        <v>471</v>
+        <v>30334</v>
       </c>
       <c r="F6">
-        <v>157</v>
+        <v>25560</v>
       </c>
       <c r="G6">
-        <v>285</v>
+        <v>40063</v>
       </c>
       <c r="H6">
-        <v>239</v>
+        <v>76324</v>
       </c>
       <c r="I6">
-        <v>409</v>
+        <v>31137</v>
       </c>
       <c r="J6">
-        <v>160</v>
+        <v>45727</v>
       </c>
       <c r="K6">
-        <v>71</v>
+        <v>7193</v>
       </c>
       <c r="L6" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="M6" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="N6" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="O6" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="P6" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="Q6" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="R6" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="S6" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="T6">
-        <v>2150</v>
+        <v>286241</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="V6" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="W6" t="s">
-        <v>185</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>418</v>
+        <v>142</v>
       </c>
       <c r="B7">
-        <v>418</v>
+        <v>142</v>
       </c>
       <c r="C7">
-        <v>1100043</v>
+        <v>7461</v>
       </c>
       <c r="D7">
-        <v>162628</v>
+        <v>28</v>
       </c>
       <c r="E7">
-        <v>10352</v>
+        <v>24</v>
       </c>
       <c r="F7">
-        <v>126480</v>
+        <v>10</v>
       </c>
       <c r="G7">
-        <v>778898</v>
+        <v>22</v>
       </c>
       <c r="H7">
-        <v>97153</v>
+        <v>12</v>
       </c>
       <c r="I7">
-        <v>12403</v>
+        <v>28</v>
       </c>
       <c r="J7">
-        <v>309587</v>
+        <v>13</v>
       </c>
       <c r="K7">
-        <v>1201991</v>
+        <v>5</v>
       </c>
       <c r="L7" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="M7" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="N7" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="O7" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="P7" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="Q7" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="R7" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="S7" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="T7">
-        <v>2699492</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>211</v>
+        <v>142</v>
       </c>
       <c r="V7" t="s">
-        <v>216</v>
+        <v>185</v>
       </c>
       <c r="W7" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>31</v>
+        <v>141</v>
       </c>
       <c r="B8">
-        <v>31</v>
+        <v>141</v>
       </c>
       <c r="C8">
-        <v>638</v>
+        <v>7460</v>
       </c>
       <c r="D8">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="E8">
-        <v>42</v>
+        <v>471</v>
       </c>
       <c r="F8">
-        <v>251</v>
+        <v>157</v>
       </c>
       <c r="G8">
-        <v>29</v>
+        <v>285</v>
       </c>
       <c r="H8">
-        <v>912</v>
+        <v>239</v>
       </c>
       <c r="I8">
-        <v>44</v>
+        <v>409</v>
       </c>
       <c r="J8">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="K8">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="L8" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="M8" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="N8" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="O8" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="P8" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="Q8" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="R8" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="S8" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="T8">
-        <v>1820</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>225</v>
+        <v>2150</v>
       </c>
       <c r="V8" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="W8" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>192</v>
+        <v>31</v>
       </c>
       <c r="B9">
-        <v>192</v>
+        <v>31</v>
       </c>
       <c r="C9">
-        <v>38018</v>
+        <v>638</v>
       </c>
       <c r="D9">
-        <v>135</v>
+        <v>341</v>
       </c>
       <c r="E9">
+        <v>42</v>
+      </c>
+      <c r="F9">
+        <v>251</v>
+      </c>
+      <c r="G9">
+        <v>29</v>
+      </c>
+      <c r="H9">
+        <v>912</v>
+      </c>
+      <c r="I9">
+        <v>44</v>
+      </c>
+      <c r="J9">
+        <v>174</v>
+      </c>
+      <c r="K9">
+        <v>27</v>
+      </c>
+      <c r="L9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" t="s">
+        <v>21</v>
+      </c>
+      <c r="P9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q9" t="s">
         <v>37</v>
       </c>
-      <c r="F9">
-        <v>77</v>
-      </c>
-      <c r="G9">
-        <v>64</v>
-      </c>
-      <c r="H9">
-        <v>381</v>
-      </c>
-      <c r="I9">
-        <v>77</v>
-      </c>
-      <c r="J9">
-        <v>78</v>
-      </c>
-      <c r="K9">
-        <v>5</v>
-      </c>
-      <c r="L9" t="s">
-        <v>89</v>
-      </c>
-      <c r="M9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N9" t="s">
-        <v>19</v>
-      </c>
-      <c r="O9" t="s">
-        <v>19</v>
-      </c>
-      <c r="P9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>19</v>
-      </c>
       <c r="R9" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="S9" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="T9">
-        <v>854</v>
+        <v>1820</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="V9" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="W9" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
@@ -2280,10 +2283,10 @@
         <v>191</v>
       </c>
       <c r="V10" t="s">
-        <v>192</v>
+        <v>231</v>
       </c>
       <c r="W10" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
@@ -2351,10 +2354,10 @@
         <v>188</v>
       </c>
       <c r="V11" t="s">
-        <v>192</v>
+        <v>231</v>
       </c>
       <c r="W11" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
@@ -2419,13 +2422,13 @@
         <v>1063</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="V12" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="W12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
@@ -2496,7 +2499,7 @@
         <v>189</v>
       </c>
       <c r="W13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
@@ -2567,7 +2570,7 @@
         <v>189</v>
       </c>
       <c r="W14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
@@ -2638,7 +2641,7 @@
         <v>184</v>
       </c>
       <c r="W15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
@@ -2709,7 +2712,7 @@
         <v>184</v>
       </c>
       <c r="W16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
@@ -2780,7 +2783,7 @@
         <v>184</v>
       </c>
       <c r="W17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
@@ -2845,13 +2848,13 @@
         <v>1965</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="V18" t="s">
+        <v>211</v>
+      </c>
+      <c r="W18" t="s">
         <v>213</v>
-      </c>
-      <c r="W18" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
@@ -2919,285 +2922,285 @@
         <v>188</v>
       </c>
       <c r="V19" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="W19" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>295</v>
+        <v>430</v>
       </c>
       <c r="B20">
-        <v>295</v>
+        <v>430</v>
       </c>
       <c r="C20">
-        <v>111789</v>
+        <v>1267021</v>
       </c>
       <c r="D20">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="E20">
-        <v>5</v>
+        <v>1467</v>
       </c>
       <c r="F20">
-        <v>4</v>
+        <v>117</v>
       </c>
       <c r="G20">
-        <v>10</v>
+        <v>337</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>5938</v>
       </c>
       <c r="J20">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="K20">
-        <v>143</v>
+        <v>16</v>
       </c>
       <c r="L20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M20" t="s">
         <v>19</v>
       </c>
       <c r="N20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P20" t="s">
-        <v>19</v>
+        <v>132</v>
       </c>
       <c r="Q20" t="s">
-        <v>19</v>
+        <v>133</v>
       </c>
       <c r="R20" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="S20" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="T20">
-        <v>168</v>
+        <v>8110</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="V20" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="W20" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>430</v>
+        <v>137</v>
       </c>
       <c r="B21">
-        <v>430</v>
+        <v>137</v>
       </c>
       <c r="C21">
-        <v>1267021</v>
+        <v>7137</v>
       </c>
       <c r="D21">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="E21">
-        <v>1467</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>117</v>
+        <v>570</v>
       </c>
       <c r="G21">
-        <v>337</v>
+        <v>2</v>
       </c>
       <c r="H21">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="I21">
-        <v>5938</v>
+        <v>11</v>
       </c>
       <c r="J21">
-        <v>93</v>
+        <v>1782</v>
       </c>
       <c r="K21">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L21" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="M21" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="N21" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="O21" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="P21" t="s">
-        <v>132</v>
+        <v>70</v>
       </c>
       <c r="Q21" t="s">
-        <v>133</v>
+        <v>71</v>
       </c>
       <c r="R21" t="s">
-        <v>140</v>
+        <v>72</v>
       </c>
       <c r="S21" t="s">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="T21">
-        <v>8110</v>
-      </c>
-      <c r="U21" s="1" t="s">
-        <v>194</v>
+        <v>2404</v>
       </c>
       <c r="V21" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="W21" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>137</v>
+        <v>421</v>
       </c>
       <c r="B22">
-        <v>137</v>
+        <v>421</v>
       </c>
       <c r="C22">
-        <v>7137</v>
+        <v>1196095</v>
       </c>
       <c r="D22">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>247</v>
       </c>
       <c r="F22">
-        <v>570</v>
+        <v>51</v>
       </c>
       <c r="G22">
-        <v>2</v>
+        <v>237</v>
       </c>
       <c r="H22">
+        <v>37</v>
+      </c>
+      <c r="I22">
+        <v>1602</v>
+      </c>
+      <c r="J22">
+        <v>38</v>
+      </c>
+      <c r="K22">
+        <v>16</v>
+      </c>
+      <c r="L22" t="s">
         <v>18</v>
       </c>
-      <c r="I22">
-        <v>11</v>
-      </c>
-      <c r="J22">
-        <v>1782</v>
-      </c>
-      <c r="K22">
-        <v>11</v>
-      </c>
-      <c r="L22" t="s">
-        <v>66</v>
-      </c>
       <c r="M22" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="N22" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="O22" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="P22" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="Q22" t="s">
-        <v>71</v>
+        <v>133</v>
       </c>
       <c r="R22" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="S22" t="s">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="T22">
-        <v>2404</v>
+        <v>2248</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="V22" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="W22" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>421</v>
+        <v>395</v>
       </c>
       <c r="B23">
-        <v>421</v>
+        <v>395</v>
       </c>
       <c r="C23">
-        <v>1196095</v>
+        <v>597456</v>
       </c>
       <c r="D23">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E23">
-        <v>247</v>
+        <v>31</v>
       </c>
       <c r="F23">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="G23">
-        <v>237</v>
+        <v>21</v>
       </c>
       <c r="H23">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="I23">
-        <v>1602</v>
+        <v>13</v>
       </c>
       <c r="J23">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="K23">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="L23" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="M23" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="N23" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="O23" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="P23" t="s">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="Q23" t="s">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="R23" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="S23" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="T23">
-        <v>2248</v>
-      </c>
-      <c r="U23" s="1" t="s">
-        <v>196</v>
+        <v>353</v>
       </c>
       <c r="V23" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="W23" t="s">
         <v>215</v>
@@ -3205,105 +3208,108 @@
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="B24">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="C24">
-        <v>597456</v>
+        <v>863372</v>
       </c>
       <c r="D24">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="E24">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="F24">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="G24">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="H24">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="K24">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="L24" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="M24" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="N24" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="O24" t="s">
-        <v>69</v>
+        <v>126</v>
       </c>
       <c r="P24" t="s">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="Q24" t="s">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="R24" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="S24" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="T24">
-        <v>353</v>
+        <v>110</v>
+      </c>
+      <c r="U24" t="s">
+        <v>188</v>
       </c>
       <c r="V24" t="s">
-        <v>217</v>
+        <v>184</v>
       </c>
       <c r="W24" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>409</v>
+        <v>529</v>
       </c>
       <c r="B25">
-        <v>409</v>
+        <v>529</v>
       </c>
       <c r="C25">
-        <v>863372</v>
+        <v>297</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>4</v>
+        <v>162</v>
       </c>
       <c r="F25">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J25">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="L25" t="s">
         <v>18</v>
@@ -3315,66 +3321,66 @@
         <v>20</v>
       </c>
       <c r="O25" t="s">
-        <v>126</v>
+        <v>166</v>
       </c>
       <c r="P25" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="Q25" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="R25" t="s">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="S25" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="T25">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="U25" t="s">
         <v>188</v>
       </c>
       <c r="V25" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="W25" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>529</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>529</v>
+        <v>24</v>
       </c>
       <c r="C26">
-        <v>297</v>
+        <v>571</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="E26">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L26" t="s">
         <v>18</v>
@@ -3386,66 +3392,66 @@
         <v>20</v>
       </c>
       <c r="O26" t="s">
-        <v>166</v>
+        <v>21</v>
       </c>
       <c r="P26" t="s">
-        <v>167</v>
+        <v>29</v>
       </c>
       <c r="Q26" t="s">
-        <v>168</v>
+        <v>34</v>
       </c>
       <c r="R26" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
       <c r="S26" t="s">
-        <v>170</v>
+        <v>36</v>
       </c>
       <c r="T26">
-        <v>164</v>
-      </c>
-      <c r="U26" t="s">
-        <v>188</v>
+        <v>108</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="V26" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="W26" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>24</v>
+        <v>361</v>
       </c>
       <c r="B27">
-        <v>24</v>
+        <v>361</v>
       </c>
       <c r="C27">
-        <v>571</v>
+        <v>303541</v>
       </c>
       <c r="D27">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G27">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H27">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="J27">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="K27">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L27" t="s">
         <v>18</v>
@@ -3454,69 +3460,66 @@
         <v>19</v>
       </c>
       <c r="N27" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="O27" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="P27" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="Q27" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="R27" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="S27" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="T27">
-        <v>108</v>
-      </c>
-      <c r="U27" s="1" t="s">
         <v>214</v>
       </c>
       <c r="V27" t="s">
+        <v>234</v>
+      </c>
+      <c r="W27" t="s">
         <v>213</v>
-      </c>
-      <c r="W27" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>426</v>
+        <v>55</v>
       </c>
       <c r="B28">
-        <v>426</v>
+        <v>55</v>
       </c>
       <c r="C28">
-        <v>1218495</v>
+        <v>1584</v>
       </c>
       <c r="D28">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="F28">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="L28" t="s">
         <v>18</v>
@@ -3537,54 +3540,54 @@
         <v>52</v>
       </c>
       <c r="R28" t="s">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="S28" t="s">
-        <v>137</v>
+        <v>54</v>
       </c>
       <c r="T28">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="V28" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="W28" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>361</v>
+        <v>424</v>
       </c>
       <c r="B29">
-        <v>361</v>
+        <v>424</v>
       </c>
       <c r="C29">
-        <v>303541</v>
+        <v>1218493</v>
       </c>
       <c r="D29">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E29">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="F29">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G29">
         <v>9</v>
       </c>
       <c r="H29">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="I29">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="J29">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="K29">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="L29" t="s">
         <v>18</v>
@@ -3608,51 +3611,51 @@
         <v>53</v>
       </c>
       <c r="S29" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="T29">
-        <v>214</v>
+        <v>145</v>
       </c>
       <c r="V29" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="W29" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>55</v>
+        <v>427</v>
       </c>
       <c r="B30">
-        <v>55</v>
+        <v>427</v>
       </c>
       <c r="C30">
-        <v>1584</v>
+        <v>1218496</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E30">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="K30">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="L30" t="s">
         <v>18</v>
@@ -3676,51 +3679,51 @@
         <v>53</v>
       </c>
       <c r="S30" t="s">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="T30">
-        <v>219</v>
+        <v>321</v>
       </c>
       <c r="V30" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="W30" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>424</v>
+        <v>47</v>
       </c>
       <c r="B31">
-        <v>424</v>
+        <v>47</v>
       </c>
       <c r="C31">
-        <v>1218493</v>
+        <v>1358</v>
       </c>
       <c r="D31">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E31">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="F31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G31">
         <v>9</v>
       </c>
       <c r="H31">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I31">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="J31">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K31">
-        <v>5</v>
+        <v>2345</v>
       </c>
       <c r="L31" t="s">
         <v>18</v>
@@ -3738,57 +3741,60 @@
         <v>48</v>
       </c>
       <c r="Q31" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R31" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="S31" t="s">
-        <v>136</v>
+        <v>51</v>
       </c>
       <c r="T31">
-        <v>145</v>
+        <v>2524</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="V31" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="W31" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>315</v>
+        <v>180</v>
       </c>
       <c r="B32">
-        <v>315</v>
+        <v>180</v>
       </c>
       <c r="C32">
-        <v>148814</v>
+        <v>33968</v>
       </c>
       <c r="D32">
-        <v>29903</v>
+        <v>1530</v>
       </c>
       <c r="E32">
-        <v>30334</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>25560</v>
+        <v>16</v>
       </c>
       <c r="G32">
-        <v>40063</v>
+        <v>19</v>
       </c>
       <c r="H32">
-        <v>76324</v>
+        <v>1127</v>
       </c>
       <c r="I32">
-        <v>31137</v>
+        <v>2</v>
       </c>
       <c r="J32">
-        <v>45727</v>
+        <v>30</v>
       </c>
       <c r="K32">
-        <v>7193</v>
+        <v>66</v>
       </c>
       <c r="L32" t="s">
         <v>18</v>
@@ -3806,57 +3812,57 @@
         <v>48</v>
       </c>
       <c r="Q32" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="R32" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="S32" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="T32">
-        <v>286241</v>
+        <v>2790</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="V32" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="W32" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>427</v>
+        <v>274</v>
       </c>
       <c r="B33">
-        <v>427</v>
+        <v>274</v>
       </c>
       <c r="C33">
-        <v>1218496</v>
+        <v>82688</v>
       </c>
       <c r="D33">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="E33">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="F33">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G33">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H33">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="I33">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="J33">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="K33">
         <v>5</v>
@@ -3880,16 +3886,19 @@
         <v>52</v>
       </c>
       <c r="R33" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="S33" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="T33">
-        <v>321</v>
+        <v>119</v>
+      </c>
+      <c r="U33" t="s">
+        <v>188</v>
       </c>
       <c r="V33" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="W33" t="s">
         <v>215</v>
@@ -3897,179 +3906,179 @@
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>47</v>
+        <v>698</v>
       </c>
       <c r="B34">
-        <v>47</v>
+        <v>698</v>
       </c>
       <c r="C34">
-        <v>1358</v>
+        <v>76773</v>
       </c>
       <c r="D34">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>72</v>
+        <v>184</v>
       </c>
       <c r="F34">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G34">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H34">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="J34">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="K34">
-        <v>2345</v>
+        <v>71</v>
       </c>
       <c r="L34" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="M34" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="N34" t="s">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="O34" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="P34" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="Q34" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="R34" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="S34" t="s">
-        <v>51</v>
+        <v>178</v>
       </c>
       <c r="T34">
-        <v>2524</v>
-      </c>
-      <c r="U34" s="1" t="s">
-        <v>198</v>
+        <v>297</v>
+      </c>
+      <c r="U34" t="s">
+        <v>188</v>
       </c>
       <c r="V34" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
       <c r="W34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>180</v>
+        <v>263</v>
       </c>
       <c r="B35">
-        <v>180</v>
+        <v>263</v>
       </c>
       <c r="C35">
-        <v>33968</v>
+        <v>76775</v>
       </c>
       <c r="D35">
-        <v>1530</v>
+        <v>5</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="F35">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="G35">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H35">
-        <v>1127</v>
+        <v>9</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="J35">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="K35">
+        <v>395</v>
+      </c>
+      <c r="L35" t="s">
         <v>66</v>
       </c>
-      <c r="L35" t="s">
-        <v>18</v>
-      </c>
       <c r="M35" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="N35" t="s">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="O35" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="P35" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="Q35" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="R35" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="S35" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="T35">
-        <v>2790</v>
-      </c>
-      <c r="U35" s="1" t="s">
-        <v>228</v>
+        <v>1036</v>
+      </c>
+      <c r="U35" t="s">
+        <v>188</v>
       </c>
       <c r="V35" t="s">
-        <v>229</v>
+        <v>189</v>
       </c>
       <c r="W35" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>274</v>
+        <v>647</v>
       </c>
       <c r="B36">
-        <v>274</v>
+        <v>647</v>
       </c>
       <c r="C36">
-        <v>82688</v>
+        <v>34062</v>
       </c>
       <c r="D36">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F36">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G36">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="H36">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="I36">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J36">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K36">
-        <v>5</v>
+        <v>148</v>
       </c>
       <c r="L36" t="s">
         <v>18</v>
@@ -4078,318 +4087,315 @@
         <v>19</v>
       </c>
       <c r="N36" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="O36" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="P36" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="Q36" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="R36" t="s">
-        <v>106</v>
+        <v>176</v>
       </c>
       <c r="S36" t="s">
-        <v>107</v>
+        <v>177</v>
       </c>
       <c r="T36">
-        <v>119</v>
+        <v>210</v>
       </c>
       <c r="U36" t="s">
         <v>188</v>
       </c>
       <c r="V36" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="W36" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>698</v>
+        <v>27</v>
       </c>
       <c r="B37">
-        <v>698</v>
+        <v>27</v>
       </c>
       <c r="C37">
-        <v>76773</v>
+        <v>582</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E37">
-        <v>184</v>
+        <v>54</v>
       </c>
       <c r="F37">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G37">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="I37">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="J37">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="K37">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="L37" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="M37" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="N37" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="O37" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="P37" t="s">
-        <v>102</v>
+        <v>29</v>
       </c>
       <c r="Q37" t="s">
-        <v>103</v>
+        <v>37</v>
       </c>
       <c r="R37" t="s">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="S37" t="s">
-        <v>178</v>
+        <v>39</v>
       </c>
       <c r="T37">
-        <v>297</v>
-      </c>
-      <c r="U37" t="s">
-        <v>188</v>
+        <v>144</v>
+      </c>
+      <c r="U37" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="V37" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="W37" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>263</v>
+        <v>418</v>
       </c>
       <c r="B38">
-        <v>263</v>
+        <v>418</v>
       </c>
       <c r="C38">
-        <v>76775</v>
+        <v>1100043</v>
       </c>
       <c r="D38">
-        <v>5</v>
+        <v>162628</v>
       </c>
       <c r="E38">
-        <v>480</v>
+        <v>10352</v>
       </c>
       <c r="F38">
-        <v>28</v>
+        <v>126480</v>
       </c>
       <c r="G38">
-        <v>36</v>
+        <v>778898</v>
       </c>
       <c r="H38">
-        <v>9</v>
+        <v>97153</v>
       </c>
       <c r="I38">
-        <v>78</v>
+        <v>12403</v>
       </c>
       <c r="J38">
-        <v>5</v>
+        <v>309587</v>
       </c>
       <c r="K38">
-        <v>395</v>
+        <v>1201991</v>
       </c>
       <c r="L38" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="M38" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="N38" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="O38" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="P38" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="Q38" t="s">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="R38" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="S38" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="T38">
-        <v>1036</v>
-      </c>
-      <c r="U38" t="s">
-        <v>188</v>
+        <v>2699492</v>
+      </c>
+      <c r="U38" s="1" t="s">
+        <v>209</v>
       </c>
       <c r="V38" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="W38" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>647</v>
+        <v>192</v>
       </c>
       <c r="B39">
-        <v>647</v>
+        <v>192</v>
       </c>
       <c r="C39">
-        <v>34062</v>
+        <v>38018</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="E39">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="F39">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="G39">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>381</v>
       </c>
       <c r="I39">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="J39">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="K39">
-        <v>148</v>
+        <v>5</v>
       </c>
       <c r="L39" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="M39" t="s">
         <v>19</v>
       </c>
       <c r="N39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O39" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P39" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Q39" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="R39" t="s">
-        <v>176</v>
+        <v>19</v>
       </c>
       <c r="S39" t="s">
-        <v>177</v>
+        <v>90</v>
       </c>
       <c r="T39">
-        <v>210</v>
-      </c>
-      <c r="U39" t="s">
-        <v>188</v>
+        <v>854</v>
+      </c>
+      <c r="U39" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="V39" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="W39" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>27</v>
+        <v>295</v>
       </c>
       <c r="B40">
-        <v>27</v>
+        <v>295</v>
       </c>
       <c r="C40">
-        <v>582</v>
+        <v>111789</v>
       </c>
       <c r="D40">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E40">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="F40">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G40">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H40">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="L40" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M40" t="s">
         <v>19</v>
       </c>
       <c r="N40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O40" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P40" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="Q40" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="R40" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="S40" t="s">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="T40">
-        <v>144</v>
-      </c>
-      <c r="U40" s="1" t="s">
-        <v>214</v>
+        <v>168</v>
       </c>
       <c r="V40" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="W40" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.2">
@@ -4457,78 +4463,78 @@
         <v>188</v>
       </c>
       <c r="V41" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="W41" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>18</v>
+        <v>496</v>
       </c>
       <c r="B42">
-        <v>18</v>
+        <v>496</v>
       </c>
       <c r="C42">
-        <v>549</v>
+        <v>2170413</v>
       </c>
       <c r="D42">
-        <v>1104</v>
+        <v>270</v>
       </c>
       <c r="E42">
-        <v>72</v>
+        <v>516</v>
       </c>
       <c r="F42">
-        <v>130</v>
+        <v>1308</v>
       </c>
       <c r="G42">
-        <v>59</v>
+        <v>451</v>
       </c>
       <c r="H42">
-        <v>1095</v>
+        <v>1059</v>
       </c>
       <c r="I42">
-        <v>128</v>
+        <v>599</v>
       </c>
       <c r="J42">
-        <v>461</v>
+        <v>1674</v>
       </c>
       <c r="K42">
-        <v>231</v>
+        <v>93</v>
       </c>
       <c r="L42" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="M42" t="s">
         <v>19</v>
       </c>
       <c r="N42" t="s">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="O42" t="s">
-        <v>21</v>
+        <v>157</v>
       </c>
       <c r="P42" t="s">
-        <v>29</v>
+        <v>158</v>
       </c>
       <c r="Q42" t="s">
-        <v>30</v>
+        <v>159</v>
       </c>
       <c r="R42" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="S42" t="s">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="T42">
-        <v>3280</v>
-      </c>
-      <c r="U42" s="1" t="s">
-        <v>199</v>
+        <v>5970</v>
+      </c>
+      <c r="U42" t="s">
+        <v>188</v>
       </c>
       <c r="V42" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="W42" t="s">
         <v>215</v>
@@ -4536,37 +4542,37 @@
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>20</v>
+        <v>734</v>
       </c>
       <c r="B43">
-        <v>20</v>
+        <v>734</v>
       </c>
       <c r="C43">
-        <v>553</v>
+        <v>152509</v>
       </c>
       <c r="D43">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>2</v>
+        <v>232</v>
       </c>
       <c r="F43">
-        <v>202</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J43">
-        <v>636</v>
+        <v>0</v>
       </c>
       <c r="K43">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="L43" t="s">
         <v>18</v>
@@ -4575,69 +4581,66 @@
         <v>19</v>
       </c>
       <c r="N43" t="s">
-        <v>20</v>
+        <v>179</v>
       </c>
       <c r="O43" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P43" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="Q43" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="R43" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="S43" t="s">
-        <v>33</v>
+        <v>180</v>
       </c>
       <c r="T43">
-        <v>1197</v>
-      </c>
-      <c r="U43" s="1" t="s">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="V43" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="W43" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>446</v>
+        <v>18</v>
       </c>
       <c r="B44">
-        <v>446</v>
+        <v>18</v>
       </c>
       <c r="C44">
-        <v>1510841</v>
+        <v>549</v>
       </c>
       <c r="D44">
-        <v>109</v>
+        <v>1104</v>
       </c>
       <c r="E44">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="F44">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="G44">
-        <v>119</v>
+        <v>59</v>
       </c>
       <c r="H44">
-        <v>157</v>
+        <v>1095</v>
       </c>
       <c r="I44">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="J44">
-        <v>38</v>
+        <v>461</v>
       </c>
       <c r="K44">
-        <v>137</v>
+        <v>231</v>
       </c>
       <c r="L44" t="s">
         <v>18</v>
@@ -4649,66 +4652,66 @@
         <v>20</v>
       </c>
       <c r="O44" t="s">
-        <v>142</v>
+        <v>21</v>
       </c>
       <c r="P44" t="s">
-        <v>143</v>
+        <v>29</v>
       </c>
       <c r="Q44" t="s">
-        <v>144</v>
+        <v>30</v>
       </c>
       <c r="R44" t="s">
-        <v>145</v>
+        <v>31</v>
       </c>
       <c r="S44" t="s">
-        <v>146</v>
+        <v>32</v>
       </c>
       <c r="T44">
-        <v>636</v>
+        <v>3280</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="V44" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="W44" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>209</v>
+        <v>20</v>
       </c>
       <c r="B45">
-        <v>209</v>
+        <v>20</v>
       </c>
       <c r="C45">
-        <v>47885</v>
+        <v>553</v>
       </c>
       <c r="D45">
-        <v>1686</v>
+        <v>135</v>
       </c>
       <c r="E45">
         <v>2</v>
       </c>
       <c r="F45">
-        <v>20</v>
+        <v>202</v>
       </c>
       <c r="G45">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="H45">
-        <v>953</v>
+        <v>127</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45">
-        <v>40</v>
+        <v>636</v>
       </c>
       <c r="K45">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="L45" t="s">
         <v>18</v>
@@ -4723,60 +4726,63 @@
         <v>21</v>
       </c>
       <c r="P45" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="Q45" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="R45" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="S45" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="T45">
-        <v>2755</v>
+        <v>1197</v>
+      </c>
+      <c r="U45" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="V45" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
       <c r="W45" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>9</v>
+        <v>446</v>
       </c>
       <c r="B46">
-        <v>9</v>
+        <v>446</v>
       </c>
       <c r="C46">
-        <v>317</v>
+        <v>1510841</v>
       </c>
       <c r="D46">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="E46">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="F46">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G46">
-        <v>2</v>
+        <v>119</v>
       </c>
       <c r="H46">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="I46">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="J46">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="K46">
-        <v>22</v>
+        <v>137</v>
       </c>
       <c r="L46" t="s">
         <v>18</v>
@@ -4788,63 +4794,66 @@
         <v>20</v>
       </c>
       <c r="O46" t="s">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="P46" t="s">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="Q46" t="s">
-        <v>23</v>
+        <v>144</v>
       </c>
       <c r="R46" t="s">
-        <v>24</v>
+        <v>145</v>
       </c>
       <c r="S46" t="s">
-        <v>25</v>
+        <v>146</v>
       </c>
       <c r="T46">
-        <v>399</v>
+        <v>636</v>
+      </c>
+      <c r="U46" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="V46" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="W46" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="B47">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="C47">
-        <v>33069</v>
+        <v>47885</v>
       </c>
       <c r="D47">
-        <v>5</v>
+        <v>1686</v>
       </c>
       <c r="E47">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="F47">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G47">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H47">
+        <v>953</v>
+      </c>
+      <c r="I47">
         <v>1</v>
       </c>
-      <c r="I47">
-        <v>13</v>
-      </c>
       <c r="J47">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="K47">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="L47" t="s">
         <v>18</v>
@@ -4868,51 +4877,51 @@
         <v>24</v>
       </c>
       <c r="S47" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="T47">
-        <v>190</v>
+        <v>2755</v>
       </c>
       <c r="V47" t="s">
         <v>184</v>
       </c>
       <c r="W47" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>311</v>
+        <v>9</v>
       </c>
       <c r="B48">
-        <v>311</v>
+        <v>9</v>
       </c>
       <c r="C48">
-        <v>138074</v>
+        <v>317</v>
       </c>
       <c r="D48">
-        <v>30851</v>
+        <v>125</v>
       </c>
       <c r="E48">
-        <v>195</v>
+        <v>3</v>
       </c>
       <c r="F48">
-        <v>212</v>
+        <v>25</v>
       </c>
       <c r="G48">
-        <v>371</v>
+        <v>2</v>
       </c>
       <c r="H48">
-        <v>27619</v>
+        <v>141</v>
       </c>
       <c r="I48">
-        <v>8224</v>
+        <v>3</v>
       </c>
       <c r="J48">
-        <v>377</v>
+        <v>78</v>
       </c>
       <c r="K48">
-        <v>527</v>
+        <v>22</v>
       </c>
       <c r="L48" t="s">
         <v>18</v>
@@ -4927,134 +4936,128 @@
         <v>21</v>
       </c>
       <c r="P48" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="Q48" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="R48" t="s">
-        <v>118</v>
+        <v>24</v>
       </c>
       <c r="S48" t="s">
-        <v>119</v>
+        <v>25</v>
       </c>
       <c r="T48">
-        <v>68376</v>
-      </c>
-      <c r="U48" s="1" t="s">
-        <v>201</v>
+        <v>399</v>
       </c>
       <c r="V48" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="W48" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>496</v>
+        <v>177</v>
       </c>
       <c r="B49">
-        <v>496</v>
+        <v>177</v>
       </c>
       <c r="C49">
-        <v>2170413</v>
+        <v>33069</v>
       </c>
       <c r="D49">
-        <v>270</v>
+        <v>5</v>
       </c>
       <c r="E49">
-        <v>516</v>
+        <v>33</v>
       </c>
       <c r="F49">
-        <v>1308</v>
+        <v>23</v>
       </c>
       <c r="G49">
-        <v>451</v>
+        <v>14</v>
       </c>
       <c r="H49">
-        <v>1059</v>
+        <v>1</v>
       </c>
       <c r="I49">
-        <v>599</v>
+        <v>13</v>
       </c>
       <c r="J49">
-        <v>1674</v>
+        <v>68</v>
       </c>
       <c r="K49">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="L49" t="s">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="M49" t="s">
         <v>19</v>
       </c>
       <c r="N49" t="s">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="O49" t="s">
-        <v>157</v>
+        <v>21</v>
       </c>
       <c r="P49" t="s">
-        <v>158</v>
+        <v>22</v>
       </c>
       <c r="Q49" t="s">
-        <v>159</v>
+        <v>23</v>
       </c>
       <c r="R49" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="S49" t="s">
-        <v>160</v>
+        <v>81</v>
       </c>
       <c r="T49">
-        <v>5970</v>
-      </c>
-      <c r="U49" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="V49" t="s">
-        <v>217</v>
+        <v>184</v>
       </c>
       <c r="W49" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>245</v>
+        <v>311</v>
       </c>
       <c r="B50">
-        <v>245</v>
+        <v>311</v>
       </c>
       <c r="C50">
-        <v>63612</v>
+        <v>138074</v>
       </c>
       <c r="D50">
-        <v>765</v>
+        <v>30851</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>195</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>212</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>371</v>
       </c>
       <c r="H50">
-        <v>583</v>
+        <v>27619</v>
       </c>
       <c r="I50">
-        <v>2</v>
+        <v>8224</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>377</v>
       </c>
       <c r="K50">
-        <v>5</v>
+        <v>527</v>
       </c>
       <c r="L50" t="s">
         <v>18</v>
@@ -5072,60 +5075,60 @@
         <v>29</v>
       </c>
       <c r="Q50" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="R50" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="S50" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="T50">
-        <v>1357</v>
+        <v>68376</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="V50" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="W50" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>429</v>
+        <v>245</v>
       </c>
       <c r="B51">
-        <v>429</v>
+        <v>245</v>
       </c>
       <c r="C51">
-        <v>1239307</v>
+        <v>63612</v>
       </c>
       <c r="D51">
-        <v>2296</v>
+        <v>765</v>
       </c>
       <c r="E51">
         <v>1</v>
       </c>
       <c r="F51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>583</v>
+      </c>
+      <c r="I51">
         <v>2</v>
       </c>
-      <c r="H51">
-        <v>1776</v>
-      </c>
-      <c r="I51">
-        <v>15</v>
-      </c>
       <c r="J51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="L51" t="s">
         <v>18</v>
@@ -5149,196 +5152,196 @@
         <v>95</v>
       </c>
       <c r="S51" t="s">
-        <v>139</v>
+        <v>96</v>
       </c>
       <c r="T51">
-        <v>4110</v>
+        <v>1357</v>
       </c>
       <c r="U51" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="V51" t="s">
         <v>202</v>
       </c>
-      <c r="V51" t="s">
-        <v>203</v>
-      </c>
       <c r="W51" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>289</v>
+        <v>429</v>
       </c>
       <c r="B52">
-        <v>289</v>
+        <v>429</v>
       </c>
       <c r="C52">
-        <v>99802</v>
+        <v>1239307</v>
       </c>
       <c r="D52">
-        <v>11</v>
+        <v>2296</v>
       </c>
       <c r="E52">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F52">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="G52">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="H52">
-        <v>4</v>
+        <v>1776</v>
       </c>
       <c r="I52">
+        <v>15</v>
+      </c>
+      <c r="J52">
         <v>1</v>
       </c>
-      <c r="J52">
-        <v>4</v>
-      </c>
       <c r="K52">
-        <v>659</v>
+        <v>16</v>
       </c>
       <c r="L52" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="M52" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="N52" t="s">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="O52" t="s">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="P52" t="s">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="Q52" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="R52" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="S52" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="T52">
-        <v>768</v>
-      </c>
-      <c r="U52" t="s">
-        <v>188</v>
+        <v>4110</v>
+      </c>
+      <c r="U52" s="1" t="s">
+        <v>201</v>
       </c>
       <c r="V52" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="W52" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>61</v>
+        <v>289</v>
       </c>
       <c r="B53">
-        <v>61</v>
+        <v>289</v>
       </c>
       <c r="C53">
-        <v>2134</v>
+        <v>99802</v>
       </c>
       <c r="D53">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="E53">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="F53">
-        <v>184</v>
+        <v>23</v>
       </c>
       <c r="G53">
-        <v>162</v>
+        <v>59</v>
       </c>
       <c r="H53">
-        <v>228</v>
+        <v>4</v>
       </c>
       <c r="I53">
-        <v>104</v>
+        <v>1</v>
       </c>
       <c r="J53">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="K53">
-        <v>49</v>
+        <v>659</v>
       </c>
       <c r="L53" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="M53" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="N53" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="O53" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="P53" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="Q53" t="s">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="R53" t="s">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="S53" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="T53">
-        <v>886</v>
-      </c>
-      <c r="U53" s="1" t="s">
-        <v>224</v>
+        <v>768</v>
+      </c>
+      <c r="U53" t="s">
+        <v>188</v>
       </c>
       <c r="V53" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="W53" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>164</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>164</v>
+        <v>61</v>
       </c>
       <c r="C54">
-        <v>29388</v>
+        <v>2134</v>
       </c>
       <c r="D54">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="E54">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="F54">
-        <v>78</v>
+        <v>184</v>
       </c>
       <c r="G54">
         <v>162</v>
       </c>
       <c r="H54">
-        <v>8</v>
+        <v>228</v>
       </c>
       <c r="I54">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="J54">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="K54">
-        <v>2542</v>
+        <v>49</v>
       </c>
       <c r="L54" t="s">
         <v>18</v>
@@ -5347,69 +5350,69 @@
         <v>19</v>
       </c>
       <c r="N54" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="O54" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="P54" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="Q54" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="R54" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="S54" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="T54">
-        <v>2926</v>
+        <v>886</v>
       </c>
       <c r="U54" s="1" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="V54" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="W54" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>43</v>
+        <v>164</v>
       </c>
       <c r="B55">
-        <v>43</v>
+        <v>164</v>
       </c>
       <c r="C55">
-        <v>1282</v>
+        <v>29388</v>
       </c>
       <c r="D55">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="E55">
-        <v>318</v>
+        <v>86</v>
       </c>
       <c r="F55">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="G55">
-        <v>16</v>
+        <v>162</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I55">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J55">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="K55">
-        <v>253</v>
+        <v>2542</v>
       </c>
       <c r="L55" t="s">
         <v>18</v>
@@ -5433,51 +5436,54 @@
         <v>46</v>
       </c>
       <c r="S55" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="T55">
-        <v>677</v>
+        <v>2926</v>
+      </c>
+      <c r="U55" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="V55" t="s">
         <v>189</v>
       </c>
       <c r="W55" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>556</v>
+        <v>43</v>
       </c>
       <c r="B56">
-        <v>556</v>
+        <v>43</v>
       </c>
       <c r="C56">
-        <v>1290</v>
+        <v>1282</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E56">
-        <v>95</v>
+        <v>318</v>
       </c>
       <c r="F56">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="G56">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="J56">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K56">
-        <v>38</v>
+        <v>253</v>
       </c>
       <c r="L56" t="s">
         <v>18</v>
@@ -5501,51 +5507,51 @@
         <v>46</v>
       </c>
       <c r="S56" t="s">
-        <v>171</v>
+        <v>47</v>
       </c>
       <c r="T56">
-        <v>158</v>
+        <v>677</v>
       </c>
       <c r="V56" t="s">
         <v>189</v>
       </c>
       <c r="W56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B57">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C57">
-        <v>1302</v>
+        <v>1290</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="F57">
+        <v>7</v>
+      </c>
+      <c r="G57">
         <v>3</v>
       </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
       <c r="H57">
         <v>0</v>
       </c>
       <c r="I57">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K57">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="L57" t="s">
         <v>18</v>
@@ -5560,48 +5566,45 @@
         <v>43</v>
       </c>
       <c r="P57" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="Q57" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="R57" t="s">
-        <v>172</v>
+        <v>46</v>
       </c>
       <c r="S57" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="T57">
-        <v>193</v>
-      </c>
-      <c r="U57" s="1" t="s">
-        <v>205</v>
+        <v>158</v>
       </c>
       <c r="V57" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="W57" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B58">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C58">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -5610,13 +5613,13 @@
         <v>0</v>
       </c>
       <c r="I58">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J58">
         <v>0</v>
       </c>
       <c r="K58">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="L58" t="s">
         <v>18</v>
@@ -5640,36 +5643,39 @@
         <v>172</v>
       </c>
       <c r="S58" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="T58">
-        <v>120</v>
+        <v>193</v>
+      </c>
+      <c r="U58" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="V58" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="W58" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B59">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C59">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -5678,13 +5684,13 @@
         <v>0</v>
       </c>
       <c r="I59">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59">
-        <v>357</v>
+        <v>71</v>
       </c>
       <c r="L59" t="s">
         <v>18</v>
@@ -5708,51 +5714,51 @@
         <v>172</v>
       </c>
       <c r="S59" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="T59">
-        <v>364</v>
+        <v>120</v>
       </c>
       <c r="V59" t="s">
         <v>189</v>
       </c>
       <c r="W59" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>275</v>
+        <v>561</v>
       </c>
       <c r="B60">
-        <v>275</v>
+        <v>561</v>
       </c>
       <c r="C60">
-        <v>82987</v>
+        <v>1308</v>
       </c>
       <c r="D60">
-        <v>323</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F60">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G60">
         <v>0</v>
       </c>
       <c r="H60">
-        <v>445</v>
+        <v>0</v>
       </c>
       <c r="I60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J60">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="K60">
-        <v>5</v>
+        <v>357</v>
       </c>
       <c r="L60" t="s">
         <v>18</v>
@@ -5761,69 +5767,66 @@
         <v>19</v>
       </c>
       <c r="N60" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="O60" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="P60" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="Q60" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="R60" t="s">
-        <v>108</v>
+        <v>172</v>
       </c>
       <c r="S60" t="s">
-        <v>109</v>
+        <v>175</v>
       </c>
       <c r="T60">
-        <v>838</v>
-      </c>
-      <c r="U60" t="s">
-        <v>188</v>
+        <v>364</v>
       </c>
       <c r="V60" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="W60" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>505</v>
+        <v>275</v>
       </c>
       <c r="B61">
-        <v>505</v>
+        <v>275</v>
       </c>
       <c r="C61">
-        <v>2487345</v>
+        <v>82987</v>
       </c>
       <c r="D61">
-        <v>171</v>
+        <v>323</v>
       </c>
       <c r="E61">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>310</v>
+        <v>17</v>
       </c>
       <c r="G61">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="I61">
-        <v>183</v>
+        <v>3</v>
       </c>
       <c r="J61">
-        <v>779</v>
+        <v>45</v>
       </c>
       <c r="K61">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="L61" t="s">
         <v>18</v>
@@ -5847,51 +5850,54 @@
         <v>108</v>
       </c>
       <c r="S61" t="s">
-        <v>163</v>
+        <v>109</v>
       </c>
       <c r="T61">
-        <v>2179</v>
+        <v>838</v>
+      </c>
+      <c r="U61" t="s">
+        <v>188</v>
       </c>
       <c r="V61" t="s">
         <v>184</v>
       </c>
       <c r="W61" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>734</v>
+        <v>505</v>
       </c>
       <c r="B62">
-        <v>734</v>
+        <v>505</v>
       </c>
       <c r="C62">
-        <v>152509</v>
+        <v>2487345</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="E62">
-        <v>232</v>
+        <v>69</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>451</v>
       </c>
       <c r="I62">
-        <v>8</v>
+        <v>183</v>
       </c>
       <c r="J62">
-        <v>0</v>
+        <v>779</v>
       </c>
       <c r="K62">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="L62" t="s">
         <v>18</v>
@@ -5900,31 +5906,31 @@
         <v>19</v>
       </c>
       <c r="N62" t="s">
-        <v>179</v>
+        <v>20</v>
       </c>
       <c r="O62" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P62" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="Q62" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="R62" t="s">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="S62" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="T62">
-        <v>240</v>
+        <v>2179</v>
       </c>
       <c r="V62" t="s">
-        <v>217</v>
+        <v>184</v>
       </c>
       <c r="W62" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.2">
@@ -5995,38 +6001,38 @@
         <v>184</v>
       </c>
       <c r="W63" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W67">
-    <sortCondition ref="S27:S67"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W63">
+    <sortCondition ref="R2:R63"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="U2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="U10" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="U13" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="U21" r:id="rId4" display="https://pubmed.ncbi.nlm.nih.gov/?term=24358254+24740297+25991680+25768309+25874551+25210772+25852743+26140264+26330094+27118586+27803186+28291793+28386455+27720045+29164717+29232373+29386588+29321884+29876054+28698604+28715431+27140688+29125851+30846803+30353179+29764668+29914555+30100619+30249635+30379893+30683856+31271530+31624548+31703071+23606484+31800608+28207182+27717118+25239900" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="U23" r:id="rId5" display="https://pubmed.ncbi.nlm.nih.gov/?term=22558460+22829932+23111871+24740297+25991680+25768309+25768110+25148082+25874551+25880915+25319366+25395644+25210772+25852743+26140264+26330094+26011669+26623177+26437644+27803186+28346815+28291793+28386455+28435856+29164717+29232373+29386588+29321884+28966892+29876054+28698604+27140688+29125851+29608282+29635372+30353179+30990837+29764668+30575755+29914555+30100619+30249635+30379893+31271530+31243442+31540209+31378758+32005933+32275718+23041637+23606484+30467713+29624166+29397399+25805518+25239900+25211052+25053814+23347062+23060052+22307297" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="U32" r:id="rId6" display="https://pubmed.ncbi.nlm.nih.gov/?term=22427985+24466119+24516438+23991051+24740297+25792062+24944337+25953738+25768309+24148670+25768110+25319366+25301653+26140264+27324340+27114887+28572315+28144419+28243545+28346815+28291793+28663705+29472795+29386588+29321884+28966892+28934240+28717593+29038770+27140688+29125851+30353179+30990837+30223435+30249054+29914555+30100619+30379893+30683856+31285515+31243442+31378758+32075309+32275718+32222941+32443465+31664160+31739261+31800608+31027777+30269313+29648528+29264966+27776911+27633178+26121394+25609652+25239902+25211052+24478297+22659204" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="U34" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="U42" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="U43" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="U48" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="U51" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="U50" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="U54" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="U57" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="U9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="U7" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="U20" r:id="rId4" display="https://pubmed.ncbi.nlm.nih.gov/?term=24358254+24740297+25991680+25768309+25874551+25210772+25852743+26140264+26330094+27118586+27803186+28291793+28386455+27720045+29164717+29232373+29386588+29321884+29876054+28698604+28715431+27140688+29125851+30846803+30353179+29764668+29914555+30100619+30249635+30379893+30683856+31271530+31624548+31703071+23606484+31800608+28207182+27717118+25239900" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="U22" r:id="rId5" display="https://pubmed.ncbi.nlm.nih.gov/?term=22558460+22829932+23111871+24740297+25991680+25768309+25768110+25148082+25874551+25880915+25319366+25395644+25210772+25852743+26140264+26330094+26011669+26623177+26437644+27803186+28346815+28291793+28386455+28435856+29164717+29232373+29386588+29321884+28966892+29876054+28698604+27140688+29125851+29608282+29635372+30353179+30990837+29764668+30575755+29914555+30100619+30249635+30379893+31271530+31243442+31540209+31378758+32005933+32275718+23041637+23606484+30467713+29624166+29397399+25805518+25239900+25211052+25053814+23347062+23060052+22307297" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="U6" r:id="rId6" display="https://pubmed.ncbi.nlm.nih.gov/?term=22427985+24466119+24516438+23991051+24740297+25792062+24944337+25953738+25768309+24148670+25768110+25319366+25301653+26140264+27324340+27114887+28572315+28144419+28243545+28346815+28291793+28663705+29472795+29386588+29321884+28966892+28934240+28717593+29038770+27140688+29125851+30353179+30990837+30223435+30249054+29914555+30100619+30379893+30683856+31285515+31243442+31378758+32075309+32275718+32222941+32443465+31664160+31739261+31800608+31027777+30269313+29648528+29264966+27776911+27633178+26121394+25609652+25239902+25211052+24478297+22659204" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="U31" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="U44" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="U45" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="U50" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="U52" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="U51" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="U55" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="U58" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="U39" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="U38" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
     <hyperlink ref="U18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="U27" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="U26" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
     <hyperlink ref="U12" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="U40" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="U53" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="U44" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="U35" r:id="rId23" xr:uid="{625A64A9-9E47-F745-B477-0336F1E9968A}"/>
-    <hyperlink ref="U8" r:id="rId24" xr:uid="{A4EBEBE0-E5AC-1242-AB3F-A44F877622E3}"/>
+    <hyperlink ref="U37" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="U54" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="U46" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="U32" r:id="rId23" xr:uid="{625A64A9-9E47-F745-B477-0336F1E9968A}"/>
+    <hyperlink ref="U9" r:id="rId24" xr:uid="{A4EBEBE0-E5AC-1242-AB3F-A44F877622E3}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Non Plants/NCBI.xlsx
+++ b/Non Plants/NCBI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sol/Documents/GitHub/Direct-shotgun-metagenomics-pub/Non Plants/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\honeyDSM-seq\Non Plants\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C578AB9-CF5A-1349-9465-A9C8A4FD4755}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BEE5344-E258-4799-B11C-5FD37E26A80F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="520" windowWidth="27640" windowHeight="15740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nonplantsfilt" sheetId="1" r:id="rId1"/>
@@ -1578,20 +1578,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P14" workbookViewId="0">
-      <selection activeCell="V31" sqref="V31"/>
+    <sheetView tabSelected="1" topLeftCell="T41" workbookViewId="0">
+      <selection activeCell="X62" sqref="X62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="18" max="18" width="17.6640625" customWidth="1"/>
-    <col min="19" max="19" width="30.6640625" customWidth="1"/>
-    <col min="21" max="21" width="30.6640625" customWidth="1"/>
-    <col min="22" max="22" width="42.1640625" customWidth="1"/>
-    <col min="23" max="23" width="29.1640625" customWidth="1"/>
+    <col min="18" max="18" width="17.69921875" customWidth="1"/>
+    <col min="19" max="19" width="30.69921875" customWidth="1"/>
+    <col min="21" max="21" width="30.69921875" customWidth="1"/>
+    <col min="22" max="22" width="42.19921875" customWidth="1"/>
+    <col min="23" max="23" width="29.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1659,7 +1659,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>14</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>194</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>214</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>426</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>315</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>142</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>141</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>31</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>458</v>
       </c>
@@ -2289,7 +2289,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>517</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>457</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>58</v>
       </c>
@@ -2502,7 +2502,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>176</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>748</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>249</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>321</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>479</v>
       </c>
@@ -2857,7 +2857,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>456</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>430</v>
       </c>
@@ -2999,7 +2999,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>137</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>421</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>395</v>
       </c>
@@ -3206,7 +3206,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>409</v>
       </c>
@@ -3277,7 +3277,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>529</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3419,7 +3419,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>361</v>
       </c>
@@ -3487,7 +3487,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>55</v>
       </c>
@@ -3555,7 +3555,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>424</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>427</v>
       </c>
@@ -3691,7 +3691,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>47</v>
       </c>
@@ -3762,7 +3762,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>180</v>
       </c>
@@ -3833,7 +3833,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>274</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>698</v>
       </c>
@@ -3975,7 +3975,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>263</v>
       </c>
@@ -4046,7 +4046,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>647</v>
       </c>
@@ -4117,7 +4117,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>27</v>
       </c>
@@ -4188,7 +4188,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>418</v>
       </c>
@@ -4259,7 +4259,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>192</v>
       </c>
@@ -4330,7 +4330,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>295</v>
       </c>
@@ -4398,7 +4398,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>499</v>
       </c>
@@ -4469,7 +4469,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>496</v>
       </c>
@@ -4540,7 +4540,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>734</v>
       </c>
@@ -4608,7 +4608,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>18</v>
       </c>
@@ -4679,7 +4679,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>20</v>
       </c>
@@ -4750,7 +4750,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>446</v>
       </c>
@@ -4821,7 +4821,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>209</v>
       </c>
@@ -4889,7 +4889,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>9</v>
       </c>
@@ -4957,7 +4957,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>177</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>311</v>
       </c>
@@ -5096,7 +5096,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>245</v>
       </c>
@@ -5167,7 +5167,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>429</v>
       </c>
@@ -5238,7 +5238,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>289</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>61</v>
       </c>
@@ -5380,7 +5380,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>164</v>
       </c>
@@ -5451,7 +5451,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>43</v>
       </c>
@@ -5519,7 +5519,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>556</v>
       </c>
@@ -5587,7 +5587,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>557</v>
       </c>
@@ -5658,7 +5658,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>560</v>
       </c>
@@ -5726,7 +5726,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>561</v>
       </c>
@@ -5794,7 +5794,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>275</v>
       </c>
@@ -5865,7 +5865,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>505</v>
       </c>
@@ -5930,10 +5930,10 @@
         <v>184</v>
       </c>
       <c r="W62" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>178</v>
       </c>
